--- a/teaching/traditional_assets/database/data/turkey/turkey_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08621499999999999</v>
+        <v>0.108</v>
       </c>
       <c r="E2">
-        <v>0.0766</v>
+        <v>0.147</v>
       </c>
       <c r="G2">
-        <v>0.06614727209944751</v>
+        <v>0.03723342364654843</v>
       </c>
       <c r="H2">
-        <v>0.06614727209944751</v>
+        <v>0.03723342364654843</v>
       </c>
       <c r="I2">
-        <v>0.03956606813996316</v>
+        <v>0.01309818653280364</v>
       </c>
       <c r="J2">
-        <v>0.03335866675640436</v>
+        <v>0.01009219522864676</v>
       </c>
       <c r="K2">
-        <v>136.98</v>
+        <v>191.26</v>
       </c>
       <c r="L2">
-        <v>0.4927054558011049</v>
+        <v>0.6358271970213261</v>
       </c>
       <c r="M2">
-        <v>5.2</v>
+        <v>0.017</v>
       </c>
       <c r="N2">
-        <v>0.0005533622074895446</v>
+        <v>2.460416244536429e-06</v>
       </c>
       <c r="O2">
-        <v>0.03796174624032706</v>
+        <v>8.888424134685769e-05</v>
       </c>
       <c r="P2">
-        <v>5.2</v>
+        <v>0.017</v>
       </c>
       <c r="Q2">
-        <v>0.0005533622074895446</v>
+        <v>2.460416244536429e-06</v>
       </c>
       <c r="R2">
-        <v>0.03796174624032706</v>
+        <v>8.888424134685769e-05</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>445.811</v>
+        <v>542.468</v>
       </c>
       <c r="V2">
-        <v>0.04744133828521566</v>
+        <v>0.07851159290242278</v>
       </c>
       <c r="W2">
-        <v>0.09215047643140231</v>
+        <v>0.1013201320132013</v>
       </c>
       <c r="X2">
-        <v>0.06140635383585651</v>
+        <v>0.06521923554702344</v>
       </c>
       <c r="Y2">
-        <v>0.03074412259554581</v>
+        <v>0.03610089646617787</v>
       </c>
       <c r="Z2">
-        <v>0.044411345519233</v>
+        <v>0.02298804106781956</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05822351479693343</v>
+        <v>0.06368516837254322</v>
       </c>
       <c r="AC2">
-        <v>-0.05822351479693343</v>
+        <v>-0.06368516837254322</v>
       </c>
       <c r="AD2">
-        <v>5818</v>
+        <v>11966.6</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>5818</v>
+        <v>11966.6</v>
       </c>
       <c r="AG2">
-        <v>5372.189</v>
+        <v>11424.132</v>
       </c>
       <c r="AH2">
-        <v>0.3823832902839942</v>
+        <v>0.6339584657766476</v>
       </c>
       <c r="AI2">
-        <v>0.8618748518606305</v>
+        <v>0.8863097706938436</v>
       </c>
       <c r="AJ2">
-        <v>0.3637405294188502</v>
+        <v>0.6231277202887038</v>
       </c>
       <c r="AK2">
-        <v>0.8521077266099345</v>
+        <v>0.8815507087974719</v>
       </c>
       <c r="AL2">
-        <v>10.7</v>
+        <v>4.3</v>
       </c>
       <c r="AM2">
-        <v>1.340999999999999</v>
+        <v>-1.008</v>
       </c>
       <c r="AN2">
-        <v>517.6156583629893</v>
+        <v>3037.208121827411</v>
       </c>
       <c r="AO2">
-        <v>1.02803738317757</v>
+        <v>0.9162790697674419</v>
       </c>
       <c r="AP2">
-        <v>477.9527580071174</v>
+        <v>2899.525888324873</v>
       </c>
       <c r="AQ2">
-        <v>8.202833706189415</v>
+        <v>-3.908730158730159</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,118 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.00843</v>
+        <v>-0.08689999999999999</v>
       </c>
       <c r="E3">
-        <v>-0.011</v>
+        <v>-0.114</v>
       </c>
       <c r="G3">
-        <v>1.105769230769231</v>
+        <v>1.526548672566372</v>
       </c>
       <c r="H3">
-        <v>1.105769230769231</v>
+        <v>1.526548672566372</v>
       </c>
       <c r="I3">
-        <v>0.7596153846153846</v>
+        <v>0.7146017699115045</v>
       </c>
       <c r="J3">
-        <v>0.5911188811188811</v>
+        <v>0.5529815565296502</v>
       </c>
       <c r="K3">
-        <v>4.28</v>
+        <v>1.66</v>
       </c>
       <c r="L3">
-        <v>0.2057692307692308</v>
+        <v>0.1836283185840708</v>
       </c>
       <c r="M3">
-        <v>4.11</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.1062015503875969</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.9602803738317757</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>4.11</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.1062015503875969</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.9602803738317757</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>0.326</v>
+        <v>5.46</v>
       </c>
       <c r="V3">
-        <v>0.008423772609819122</v>
+        <v>0.08639240506329114</v>
       </c>
       <c r="W3">
-        <v>0.1732793522267207</v>
+        <v>0.06264150943396227</v>
       </c>
       <c r="X3">
-        <v>0.04695587503754102</v>
+        <v>0.03797272919321029</v>
       </c>
       <c r="Y3">
-        <v>0.1263234771891796</v>
+        <v>0.02466878024075198</v>
       </c>
       <c r="Z3">
-        <v>0.2687685747512599</v>
+        <v>0.1254266448372506</v>
       </c>
       <c r="AA3">
-        <v>0.1588741791868811</v>
+        <v>0.06935862129239442</v>
       </c>
       <c r="AB3">
-        <v>0.05348954734915011</v>
+        <v>0.04665300533588343</v>
       </c>
       <c r="AC3">
-        <v>0.105384631837731</v>
+        <v>0.02270561595651099</v>
       </c>
       <c r="AD3">
-        <v>45.9</v>
+        <v>33.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>45.9</v>
+        <v>33.3</v>
       </c>
       <c r="AG3">
-        <v>45.574</v>
+        <v>27.84</v>
       </c>
       <c r="AH3">
-        <v>0.5425531914893618</v>
+        <v>0.3450777202072539</v>
       </c>
       <c r="AI3">
-        <v>0.6339779005524862</v>
+        <v>0.6132596685082873</v>
       </c>
       <c r="AJ3">
-        <v>0.5407836343356195</v>
+        <v>0.3057996485061512</v>
       </c>
       <c r="AK3">
-        <v>0.6323223353775287</v>
+        <v>0.57002457002457</v>
       </c>
       <c r="AL3">
-        <v>10.7</v>
+        <v>4.3</v>
       </c>
       <c r="AM3">
-        <v>10.357</v>
+        <v>4.255</v>
       </c>
       <c r="AN3">
-        <v>2.886792452830189</v>
+        <v>5.146831530139103</v>
       </c>
       <c r="AO3">
-        <v>1.476635514018692</v>
+        <v>1.502325581395349</v>
       </c>
       <c r="AP3">
-        <v>2.8662893081761</v>
+        <v>4.302936630602781</v>
       </c>
       <c r="AQ3">
-        <v>1.525538283286666</v>
+        <v>1.518213866039953</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +847,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>QNB Finans Finansal Kiralama Anonim Sirketi (IBSE:QNBFL)</t>
+          <t>Türkiye Kalkinma ve Yatirim Bankasi A.S. (IBSE:KLNMA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -858,26 +855,29 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.377</v>
+      </c>
       <c r="E4">
-        <v>0.0573</v>
+        <v>0.531</v>
       </c>
       <c r="G4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.26</v>
+        <v>54.9</v>
       </c>
       <c r="L4">
-        <v>-2.516304347826087</v>
+        <v>0.6026344676180022</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -901,55 +901,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>9.91</v>
+        <v>220.4</v>
       </c>
       <c r="V4">
-        <v>0.003971943887775551</v>
+        <v>0.0619971870604782</v>
       </c>
       <c r="W4">
-        <v>0.06484593837535013</v>
+        <v>0.137215696075981</v>
       </c>
       <c r="X4">
-        <v>0.03729712144658809</v>
+        <v>0.04129123390406689</v>
       </c>
       <c r="Y4">
-        <v>0.02754881692876204</v>
+        <v>0.09592446217191411</v>
       </c>
       <c r="Z4">
-        <v>-0.003360423705597663</v>
+        <v>0.03164842800069481</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04264689236719619</v>
+        <v>0.05242688494896177</v>
       </c>
       <c r="AC4">
-        <v>-0.04264689236719619</v>
+        <v>-0.05242688494896177</v>
       </c>
       <c r="AD4">
-        <v>816.3</v>
+        <v>2835.6</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>816.3</v>
+        <v>2835.6</v>
       </c>
       <c r="AG4">
-        <v>806.39</v>
+        <v>2615.2</v>
       </c>
       <c r="AH4">
-        <v>0.2465194938543774</v>
+        <v>0.4437142052389447</v>
       </c>
       <c r="AI4">
-        <v>0.839124177631579</v>
+        <v>0.8912776991984912</v>
       </c>
       <c r="AJ4">
-        <v>0.2442577217475063</v>
+        <v>0.4238436355385563</v>
       </c>
       <c r="AK4">
-        <v>0.8374684543405789</v>
+        <v>0.8831853027591098</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -966,7 +966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Türkiye Kalkinma ve Yatirim Bankasi A.S. (IBSE:KLNMA)</t>
+          <t>QNB Finans Finansal Kiralama AS (IBSE:QNBFL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.425</v>
+        <v>-0.038</v>
       </c>
       <c r="E5">
-        <v>0.613</v>
+        <v>0.197</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -993,85 +993,82 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>87</v>
+        <v>15.6</v>
       </c>
       <c r="L5">
-        <v>0.6497386109036595</v>
+        <v>1.822429906542056</v>
       </c>
       <c r="M5">
-        <v>1.09</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.0001750104364021708</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.01252873563218391</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>1.09</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.0001750104364021708</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.01252873563218391</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>355.3</v>
+        <v>27.8</v>
       </c>
       <c r="V5">
-        <v>0.05704697986577181</v>
+        <v>0.01432768128639901</v>
       </c>
       <c r="W5">
-        <v>0.4037122969837587</v>
+        <v>0.09968051118210862</v>
       </c>
       <c r="X5">
-        <v>0.03873439391358633</v>
+        <v>0.03661048088954109</v>
       </c>
       <c r="Y5">
-        <v>0.3649779030701724</v>
+        <v>0.06307003029256752</v>
       </c>
       <c r="Z5">
-        <v>0.05525067051784609</v>
+        <v>0.008889904350445016</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04507102479299697</v>
+        <v>0.05576462892663743</v>
       </c>
       <c r="AC5">
-        <v>-0.04507102479299697</v>
+        <v>-0.05576462892663743</v>
       </c>
       <c r="AD5">
-        <v>2833.7</v>
+        <v>806.7</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>2833.7</v>
+        <v>806.7</v>
       </c>
       <c r="AG5">
-        <v>2478.4</v>
+        <v>778.9000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.3127048411481036</v>
+        <v>0.2936658172551875</v>
       </c>
       <c r="AI5">
-        <v>0.8762755890902344</v>
+        <v>0.8611229718189581</v>
       </c>
       <c r="AJ5">
-        <v>0.2846576160613787</v>
+        <v>0.2864445425125037</v>
       </c>
       <c r="AK5">
-        <v>0.8610039951363557</v>
+        <v>0.8568756875687569</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1096,26 +1093,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D6">
-        <v>-0.431</v>
+      <c r="E6">
+        <v>0.147</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6">
-        <v>-2.43</v>
+        <v>1.68</v>
       </c>
       <c r="L6">
-        <v>-31.97368421052632</v>
+        <v>-1.083870967741935</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1124,7 +1121,7 @@
         <v>-0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1133,67 +1130,67 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.45</v>
+        <v>0.78</v>
       </c>
       <c r="V6">
-        <v>0.03606965174129353</v>
+        <v>0.01809744779582367</v>
       </c>
       <c r="W6">
-        <v>-0.1883720930232558</v>
+        <v>0.1253731343283582</v>
       </c>
       <c r="X6">
-        <v>0.06005392204164933</v>
+        <v>0.05358312103309078</v>
       </c>
       <c r="Y6">
-        <v>-0.2484260150649052</v>
+        <v>0.07179001329526741</v>
       </c>
       <c r="Z6">
-        <v>0.0006912861560851373</v>
+        <v>-0.01456082667919211</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05395064469441781</v>
+        <v>0.05640948542926702</v>
       </c>
       <c r="AC6">
-        <v>-0.05395064469441781</v>
+        <v>-0.05640948542926702</v>
       </c>
       <c r="AD6">
-        <v>94.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>94.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="AG6">
-        <v>93.05</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.7015590200445435</v>
+        <v>0.6429163214581607</v>
       </c>
       <c r="AI6">
-        <v>0.8758109360518999</v>
+        <v>0.8709315375982043</v>
       </c>
       <c r="AJ6">
-        <v>0.6983114446529081</v>
+        <v>0.6405937291527686</v>
       </c>
       <c r="AK6">
-        <v>0.8741193048379521</v>
+        <v>0.8697916666666666</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.068</v>
+        <v>-0.102</v>
       </c>
       <c r="AQ6">
         <v>-0</v>
@@ -1215,26 +1212,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D7">
-        <v>-0.244</v>
+      <c r="E7">
+        <v>0.014</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>3.07</v>
       </c>
       <c r="L7">
-        <v>-0.7936507936507936</v>
+        <v>-3.633136094674556</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1243,7 +1240,7 @@
         <v>-0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1252,67 +1249,67 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>5.81</v>
+        <v>2.86</v>
       </c>
       <c r="V7">
-        <v>0.1123791102514507</v>
+        <v>0.02401343408900084</v>
       </c>
       <c r="W7">
-        <v>-0.02958579881656805</v>
+        <v>0.1013201320132013</v>
       </c>
       <c r="X7">
-        <v>0.1015061986243233</v>
+        <v>0.06521923554702344</v>
       </c>
       <c r="Y7">
-        <v>-0.1310919974408914</v>
+        <v>0.03610089646617787</v>
       </c>
       <c r="Z7">
-        <v>0.003098259073473001</v>
+        <v>-0.002510472681897858</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.06249638489944906</v>
+        <v>0.06368516837254322</v>
       </c>
       <c r="AC7">
-        <v>-0.06249638489944906</v>
+        <v>-0.06368516837254322</v>
       </c>
       <c r="AD7">
-        <v>312.1</v>
+        <v>327.5</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>312.1</v>
+        <v>327.5</v>
       </c>
       <c r="AG7">
-        <v>306.29</v>
+        <v>324.64</v>
       </c>
       <c r="AH7">
-        <v>0.8578889499725124</v>
+        <v>0.7333184057321988</v>
       </c>
       <c r="AI7">
-        <v>0.9115070093457943</v>
+        <v>0.9267119411431806</v>
       </c>
       <c r="AJ7">
-        <v>0.855582558172016</v>
+        <v>0.7315995853427683</v>
       </c>
       <c r="AK7">
-        <v>0.9099795002822425</v>
+        <v>0.9261139955497233</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-0.344</v>
+        <v>-0.189</v>
       </c>
       <c r="AQ7">
         <v>-0</v>
@@ -1326,7 +1323,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vakif Finansal Kiralama A.S. (IBSE:VAKFN)</t>
+          <t>Is Finansal Kiralama Anonim Sirketi (IBSE:ISFIN)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1334,6 +1331,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D8">
+        <v>0.108</v>
+      </c>
+      <c r="E8">
+        <v>0.111</v>
+      </c>
       <c r="G8">
         <v>0</v>
       </c>
@@ -1347,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.44</v>
+        <v>15.3</v>
       </c>
       <c r="L8">
-        <v>0.4066193853427896</v>
+        <v>1.055172413793104</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1374,64 +1377,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>14.1</v>
+        <v>50.8</v>
       </c>
       <c r="V8">
-        <v>0.1980337078651685</v>
+        <v>0.1404867256637168</v>
       </c>
       <c r="W8">
-        <v>0.08557213930348258</v>
+        <v>0.07103064066852367</v>
       </c>
       <c r="X8">
-        <v>0.1039201669508496</v>
+        <v>0.07395712367932467</v>
       </c>
       <c r="Y8">
-        <v>-0.01834802764736701</v>
+        <v>-0.002926483010800993</v>
       </c>
       <c r="Z8">
-        <v>0.01619138755980861</v>
+        <v>0.01108587269901244</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.06263799364581116</v>
+        <v>0.06555404795960672</v>
       </c>
       <c r="AC8">
-        <v>-0.06263799364581116</v>
+        <v>-0.06555404795960672</v>
       </c>
       <c r="AD8">
-        <v>445.1</v>
+        <v>1252.1</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>445.1</v>
+        <v>1252.1</v>
       </c>
       <c r="AG8">
-        <v>431</v>
+        <v>1201.3</v>
       </c>
       <c r="AH8">
-        <v>0.8620956808057331</v>
+        <v>0.7759186961640949</v>
       </c>
       <c r="AI8">
-        <v>0.905226764287167</v>
+        <v>0.865546799391677</v>
       </c>
       <c r="AJ8">
-        <v>0.8582238152130626</v>
+        <v>0.7686352293812784</v>
       </c>
       <c r="AK8">
-        <v>0.9024288107202679</v>
+        <v>0.8606533887376415</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>-0.504</v>
-      </c>
-      <c r="AQ8">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Is Finansal Kiralama A.S. (IBSE:ISFIN)</t>
+          <t>Vakif Finansal Kiralama A.S. (IBSE:VAKFN)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1451,10 +1451,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.503</v>
+        <v>1.056</v>
       </c>
       <c r="E9">
-        <v>0.304</v>
+        <v>0.442</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>34.1</v>
+        <v>8.59</v>
       </c>
       <c r="L9">
-        <v>0.4583333333333333</v>
+        <v>0.6410447761194029</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1496,61 +1496,64 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>58.7</v>
+        <v>12.1</v>
       </c>
       <c r="V9">
-        <v>0.1321179383299572</v>
+        <v>0.1054925893635571</v>
       </c>
       <c r="W9">
-        <v>0.2028554431885782</v>
+        <v>0.1843347639484978</v>
       </c>
       <c r="X9">
-        <v>0.06275878563006368</v>
+        <v>0.07612989451776875</v>
       </c>
       <c r="Y9">
-        <v>0.1400966575585146</v>
+        <v>0.1082048694307291</v>
       </c>
       <c r="Z9">
-        <v>0.05249151246108997</v>
+        <v>0.02805695142378559</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.06494185726600471</v>
+        <v>0.06592961223024545</v>
       </c>
       <c r="AC9">
-        <v>-0.06494185726600471</v>
+        <v>-0.06592961223024545</v>
       </c>
       <c r="AD9">
-        <v>1151.3</v>
+        <v>417.5</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>1151.3</v>
+        <v>417.5</v>
       </c>
       <c r="AG9">
-        <v>1092.6</v>
+        <v>405.4</v>
       </c>
       <c r="AH9">
-        <v>0.7215467535723239</v>
+        <v>0.7844795189778279</v>
       </c>
       <c r="AI9">
-        <v>0.8340336134453782</v>
+        <v>0.906032986111111</v>
       </c>
       <c r="AJ9">
-        <v>0.7109115752488776</v>
+        <v>0.779465487406268</v>
       </c>
       <c r="AK9">
-        <v>0.826662631459484</v>
+        <v>0.9034989971027412</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>-0.472</v>
+      </c>
+      <c r="AQ9">
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
@@ -1561,124 +1564,246 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Türkiye Sinai Kalkinma Bankasi A.S. (IBSE:TSKB)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.163</v>
+      </c>
+      <c r="E10">
+        <v>0.146</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>88.8</v>
+      </c>
+      <c r="L10">
+        <v>0.6040816326530613</v>
+      </c>
+      <c r="M10">
+        <v>0.017</v>
+      </c>
+      <c r="N10">
+        <v>2.533154522425868e-05</v>
+      </c>
+      <c r="O10">
+        <v>0.0001914414414414415</v>
+      </c>
+      <c r="P10">
+        <v>0.017</v>
+      </c>
+      <c r="Q10">
+        <v>2.533154522425868e-05</v>
+      </c>
+      <c r="R10">
+        <v>0.0001914414414414415</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>221.3</v>
+      </c>
+      <c r="V10">
+        <v>0.3297571151840262</v>
+      </c>
+      <c r="W10">
+        <v>0.1030640668523677</v>
+      </c>
+      <c r="X10">
+        <v>0.1428651314404974</v>
+      </c>
+      <c r="Y10">
+        <v>-0.03980106458812971</v>
+      </c>
+      <c r="Z10">
+        <v>0.02163539444562024</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0.07103426339027216</v>
+      </c>
+      <c r="AC10">
+        <v>-0.07103426339027216</v>
+      </c>
+      <c r="AD10">
+        <v>6096.6</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>6096.6</v>
+      </c>
+      <c r="AG10">
+        <v>5875.3</v>
+      </c>
+      <c r="AH10">
+        <v>0.9008378030941088</v>
+      </c>
+      <c r="AI10">
+        <v>0.8917721056095956</v>
+      </c>
+      <c r="AJ10">
+        <v>0.897485640962972</v>
+      </c>
+      <c r="AK10">
+        <v>0.8881515298101343</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Lider Faktoring A.S. (IBSE:LIDFA)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D10">
-        <v>0.164</v>
-      </c>
-      <c r="E10">
-        <v>0.0766</v>
-      </c>
-      <c r="G10">
-        <v>-0.1077102803738318</v>
-      </c>
-      <c r="H10">
-        <v>-0.1077102803738318</v>
-      </c>
-      <c r="I10">
-        <v>-0.1121495327102804</v>
-      </c>
-      <c r="J10">
-        <v>-0.07959548902082209</v>
-      </c>
-      <c r="K10">
-        <v>2.33</v>
-      </c>
-      <c r="L10">
-        <v>0.05443925233644861</v>
-      </c>
-      <c r="M10">
-        <v>-0</v>
-      </c>
-      <c r="N10">
-        <v>-0</v>
-      </c>
-      <c r="O10">
-        <v>-0</v>
-      </c>
-      <c r="P10">
-        <v>-0</v>
-      </c>
-      <c r="Q10">
-        <v>-0</v>
-      </c>
-      <c r="R10">
-        <v>-0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0.215</v>
-      </c>
-      <c r="V10">
-        <v>0.007733812949640287</v>
-      </c>
-      <c r="W10">
-        <v>0.09872881355932203</v>
-      </c>
-      <c r="X10">
-        <v>0.08179695892688099</v>
-      </c>
-      <c r="Y10">
-        <v>0.01693185463244104</v>
-      </c>
-      <c r="Z10">
-        <v>0.2062253059651152</v>
-      </c>
-      <c r="AA10">
-        <v>-0.016414604076762</v>
-      </c>
-      <c r="AB10">
-        <v>0.06331284239371164</v>
-      </c>
-      <c r="AC10">
-        <v>-0.07972744647047364</v>
-      </c>
-      <c r="AD10">
-        <v>119.1</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>119.1</v>
-      </c>
-      <c r="AG10">
-        <v>118.885</v>
-      </c>
-      <c r="AH10">
-        <v>0.8107556160653505</v>
-      </c>
-      <c r="AI10">
-        <v>0.7993288590604026</v>
-      </c>
-      <c r="AJ10">
-        <v>0.810478235675086</v>
-      </c>
-      <c r="AK10">
-        <v>0.7990388816076889</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>-8.1</v>
-      </c>
-      <c r="AN10">
-        <v>-25.55793991416309</v>
-      </c>
-      <c r="AP10">
-        <v>-25.51180257510729</v>
-      </c>
-      <c r="AQ10">
-        <v>0.5925925925925926</v>
+      <c r="D11">
+        <v>0.0348</v>
+      </c>
+      <c r="E11">
+        <v>0.303</v>
+      </c>
+      <c r="G11">
+        <v>-0.1326530612244898</v>
+      </c>
+      <c r="H11">
+        <v>-0.1326530612244898</v>
+      </c>
+      <c r="I11">
+        <v>-0.1285714285714286</v>
+      </c>
+      <c r="J11">
+        <v>-0.1063113006396588</v>
+      </c>
+      <c r="K11">
+        <v>1.66</v>
+      </c>
+      <c r="L11">
+        <v>0.0846938775510204</v>
+      </c>
+      <c r="M11">
+        <v>-0</v>
+      </c>
+      <c r="N11">
+        <v>-0</v>
+      </c>
+      <c r="O11">
+        <v>-0</v>
+      </c>
+      <c r="P11">
+        <v>-0</v>
+      </c>
+      <c r="Q11">
+        <v>-0</v>
+      </c>
+      <c r="R11">
+        <v>-0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0.968</v>
+      </c>
+      <c r="V11">
+        <v>0.02343825665859564</v>
+      </c>
+      <c r="W11">
+        <v>0.05551839464882943</v>
+      </c>
+      <c r="X11">
+        <v>0.06703961901686686</v>
+      </c>
+      <c r="Y11">
+        <v>-0.01152122436803743</v>
+      </c>
+      <c r="Z11">
+        <v>0.1317337097153611</v>
+      </c>
+      <c r="AA11">
+        <v>-0.0140047820179273</v>
+      </c>
+      <c r="AB11">
+        <v>0.06413088237311092</v>
+      </c>
+      <c r="AC11">
+        <v>-0.07813566439103822</v>
+      </c>
+      <c r="AD11">
+        <v>119.7</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>119.7</v>
+      </c>
+      <c r="AG11">
+        <v>118.732</v>
+      </c>
+      <c r="AH11">
+        <v>0.7434782608695653</v>
+      </c>
+      <c r="AI11">
+        <v>0.8394109396914446</v>
+      </c>
+      <c r="AJ11">
+        <v>0.7419266146770647</v>
+      </c>
+      <c r="AK11">
+        <v>0.8383133755083596</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>-4.5</v>
+      </c>
+      <c r="AN11">
+        <v>-47.31225296442688</v>
+      </c>
+      <c r="AP11">
+        <v>-46.92964426877471</v>
+      </c>
+      <c r="AQ11">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/teaching/traditional_assets/database/data/turkey/turkey_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_financial_svcs_non_bank_insurance.xlsx
@@ -648,10 +648,10 @@
         <v>0.1013201320132013</v>
       </c>
       <c r="X2">
-        <v>0.06521923554702344</v>
+        <v>0.06119801074845367</v>
       </c>
       <c r="Y2">
-        <v>0.03610089646617787</v>
+        <v>0.04012212126474764</v>
       </c>
       <c r="Z2">
         <v>0.02298804106781956</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06368516837254322</v>
+        <v>0.05889485741528916</v>
       </c>
       <c r="AC2">
-        <v>-0.06368516837254322</v>
+        <v>-0.05889485741528916</v>
       </c>
       <c r="AD2">
         <v>11966.6</v>
@@ -779,10 +779,10 @@
         <v>0.06264150943396227</v>
       </c>
       <c r="X3">
-        <v>0.03797272919321029</v>
+        <v>0.03258487127035474</v>
       </c>
       <c r="Y3">
-        <v>0.02466878024075198</v>
+        <v>0.03005663816360753</v>
       </c>
       <c r="Z3">
         <v>0.1254266448372506</v>
@@ -791,10 +791,10 @@
         <v>0.06935862129239442</v>
       </c>
       <c r="AB3">
-        <v>0.04665300533588343</v>
+        <v>0.04137483310039668</v>
       </c>
       <c r="AC3">
-        <v>0.02270561595651099</v>
+        <v>0.02798378819199775</v>
       </c>
       <c r="AD3">
         <v>33.3</v>
@@ -910,10 +910,10 @@
         <v>0.137215696075981</v>
       </c>
       <c r="X4">
-        <v>0.04129123390406689</v>
+        <v>0.03606982588866234</v>
       </c>
       <c r="Y4">
-        <v>0.09592446217191411</v>
+        <v>0.1011458701873187</v>
       </c>
       <c r="Z4">
         <v>0.03164842800069481</v>
@@ -922,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05242688494896177</v>
+        <v>0.04727265882077926</v>
       </c>
       <c r="AC4">
-        <v>-0.05242688494896177</v>
+        <v>-0.04727265882077926</v>
       </c>
       <c r="AD4">
         <v>2835.6</v>
@@ -1029,10 +1029,10 @@
         <v>0.09968051118210862</v>
       </c>
       <c r="X5">
-        <v>0.03661048088954109</v>
+        <v>0.03115429517334863</v>
       </c>
       <c r="Y5">
-        <v>0.06307003029256752</v>
+        <v>0.06852621600875999</v>
       </c>
       <c r="Z5">
         <v>0.008889904350445016</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05576462892663743</v>
+        <v>0.0504218527544029</v>
       </c>
       <c r="AC5">
-        <v>-0.05576462892663743</v>
+        <v>-0.0504218527544029</v>
       </c>
       <c r="AD5">
         <v>806.7</v>
@@ -1145,10 +1145,10 @@
         <v>0.1253731343283582</v>
       </c>
       <c r="X6">
-        <v>0.05358312103309078</v>
+        <v>0.04897825078191798</v>
       </c>
       <c r="Y6">
-        <v>0.07179001329526741</v>
+        <v>0.07639488354644022</v>
       </c>
       <c r="Z6">
         <v>-0.01456082667919211</v>
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05640948542926702</v>
+        <v>0.05150557567097748</v>
       </c>
       <c r="AC6">
-        <v>-0.05640948542926702</v>
+        <v>-0.05150557567097748</v>
       </c>
       <c r="AD6">
         <v>77.59999999999999</v>
@@ -1264,10 +1264,10 @@
         <v>0.1013201320132013</v>
       </c>
       <c r="X7">
-        <v>0.06521923554702344</v>
+        <v>0.06119801074845367</v>
       </c>
       <c r="Y7">
-        <v>0.03610089646617787</v>
+        <v>0.04012212126474764</v>
       </c>
       <c r="Z7">
         <v>-0.002510472681897858</v>
@@ -1276,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.06368516837254322</v>
+        <v>0.05889485741528916</v>
       </c>
       <c r="AC7">
-        <v>-0.06368516837254322</v>
+        <v>-0.05889485741528916</v>
       </c>
       <c r="AD7">
         <v>327.5</v>
@@ -1386,10 +1386,10 @@
         <v>0.07103064066852367</v>
       </c>
       <c r="X8">
-        <v>0.07395712367932467</v>
+        <v>0.0703741747904381</v>
       </c>
       <c r="Y8">
-        <v>-0.002926483010800993</v>
+        <v>0.0006564658780855714</v>
       </c>
       <c r="Z8">
         <v>0.01108587269901244</v>
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.06555404795960672</v>
+        <v>0.06081726831145565</v>
       </c>
       <c r="AC8">
-        <v>-0.06555404795960672</v>
+        <v>-0.06081726831145565</v>
       </c>
       <c r="AD8">
         <v>1252.1</v>
@@ -1505,10 +1505,10 @@
         <v>0.1843347639484978</v>
       </c>
       <c r="X9">
-        <v>0.07612989451776875</v>
+        <v>0.07265592769655503</v>
       </c>
       <c r="Y9">
-        <v>0.1082048694307291</v>
+        <v>0.1116788362519428</v>
       </c>
       <c r="Z9">
         <v>0.02805695142378559</v>
@@ -1517,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.06592961223024545</v>
+        <v>0.06120359006866481</v>
       </c>
       <c r="AC9">
-        <v>-0.06592961223024545</v>
+        <v>-0.06120359006866481</v>
       </c>
       <c r="AD9">
         <v>417.5</v>
@@ -1630,10 +1630,10 @@
         <v>0.1030640668523677</v>
       </c>
       <c r="X10">
-        <v>0.1428651314404974</v>
+        <v>0.1427384776344401</v>
       </c>
       <c r="Y10">
-        <v>-0.03980106458812971</v>
+        <v>-0.03967441078207237</v>
       </c>
       <c r="Z10">
         <v>0.02163539444562024</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.07103426339027216</v>
+        <v>0.06645445645892989</v>
       </c>
       <c r="AC10">
-        <v>-0.07103426339027216</v>
+        <v>-0.06645445645892989</v>
       </c>
       <c r="AD10">
         <v>6096.6</v>
@@ -1749,10 +1749,10 @@
         <v>0.05551839464882943</v>
       </c>
       <c r="X11">
-        <v>0.06703961901686686</v>
+        <v>0.06310970120336465</v>
       </c>
       <c r="Y11">
-        <v>-0.01152122436803743</v>
+        <v>-0.007591306554535215</v>
       </c>
       <c r="Z11">
         <v>0.1317337097153611</v>
@@ -1761,10 +1761,10 @@
         <v>-0.0140047820179273</v>
       </c>
       <c r="AB11">
-        <v>0.06413088237311092</v>
+        <v>0.05935333823834295</v>
       </c>
       <c r="AC11">
-        <v>-0.07813566439103822</v>
+        <v>-0.07335812025627025</v>
       </c>
       <c r="AD11">
         <v>119.7</v>
